--- a/models/Sentence_based/stage_1_matrix_test.xlsx
+++ b/models/Sentence_based/stage_1_matrix_test.xlsx
@@ -379,10 +379,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>13091</v>
+        <v>13036</v>
       </c>
       <c r="C2" t="n">
-        <v>1230</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="3">
@@ -390,10 +390,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>725</v>
+        <v>704</v>
       </c>
       <c r="C3" t="n">
-        <v>4177</v>
+        <v>4197</v>
       </c>
     </row>
   </sheetData>
